--- a/izax.xlsx
+++ b/izax.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Napster/MachineLearning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lorenzo\Desktop\ASPimat\ASP\Lavoro con fra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8CB1084-757D-6B44-A5B4-20899C796824}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="iza" localSheetId="0">Sheet1!$A$1:$AG$196</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,8 +30,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="iza" type="6" refreshedVersion="0" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="iza" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/jevans/Dropbox/Partage TGU/Jack/machinelearning/manuscript_chemsci/suppinfo/iza.csv" thousands=" " comma="1">
       <textFields count="35">
         <textField/>
@@ -81,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="427">
   <si>
     <t>name</t>
   </si>
@@ -1362,40 +1357,23 @@
   </si>
   <si>
     <t>3,11899</t>
-  </si>
-  <si>
-    <t>1,75453196385</t>
-  </si>
-  <si>
-    <t>1,6427317059</t>
-  </si>
-  <si>
-    <t>1,50157641212</t>
-  </si>
-  <si>
-    <t>1,91427586072</t>
-  </si>
-  <si>
-    <t>2,00822234021</t>
-  </si>
-  <si>
-    <t>1,81715969822</t>
-  </si>
-  <si>
-    <t>1,68942175654</t>
-  </si>
-  <si>
-    <t>1,73560067112</t>
-  </si>
-  <si>
-    <t>1,91635668981</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1421,14 +1399,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1444,1991 +1425,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Foglio1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>42.3983997144</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>31.407661347499999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>25.2041384714</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>28.799694243299999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>29.5659636382</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>22.067712643</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>29.539517165300001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>22.745542124</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>27.761906811999999</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>22.682408184700002</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>20.311332442000001</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>25.542083972499999</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>22.8837062369</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>25.121064845700001</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>19.741714153299998</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>36.274316882299999</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>34.179500536399999</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>32.345309009300003</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>38.593279176700001</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>35.523991039199998</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>26.402279226299999</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>25.975700958899999</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>34.522642633099998</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>22.804619578800001</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>23.649422272399999</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>47.196213029600003</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>20.895009396300001</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>27.399630138199999</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>24.309115838499999</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>49.699350973900003</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>22.335979799099999</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>51.336273614</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>25.6796495597</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>21.9790024604</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>15.5526515234</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>19.892005682299999</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>26.697789860099999</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>22.479655308800002</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>26.959838858000001</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>46.863060822999998</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>35.610052872600001</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>37.281867330700003</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>23.667415900599998</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>22.872812189099999</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>28.129495134100001</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>21.855767224600001</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>23.223424127800001</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>35.926417366999999</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>21.333818736200001</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>18.133438696199999</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>26.440417699800001</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>34.788791547800002</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>21.847788803899999</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>24.573050525399999</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>24.320036017300001</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>37.542884948699999</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>18.727777451000001</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>23.186797195099999</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>32.261055589100003</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>26.221818257100001</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>22.7960235103</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>20.379157548399998</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>34.935734084700002</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>21.801942703800002</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>32.435056511699997</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>34.735277085</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>34.498837119800001</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>27.557741946899998</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>30.4391282311</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>24.8659739617</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>22.537128682599999</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>25.579146767600001</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>24.5174274594</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>23.5874766632</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>24.236684048600001</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>28.209888916000001</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>12.4433329037</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>22.346732713200002</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>23.277433130199999</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>21.6174108594</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>24.7151364554</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>24.140337878499999</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>26.310826178300001</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>21.513126222099999</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>21.423589797000002</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>25.6495164506</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>21.679637927000002</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>39.1940203013</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>20.734579974300001</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>29.085239194900002</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>22.4666527541</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>18.921202833700001</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>24.230577843399999</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>21.713733551899999</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>25.114487630700001</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>23.827238607000002</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>25.9280907455</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>33.836191237400001</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>24.874468669500001</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>22.835321817099999</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>22.5314552006</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>30.823748745700001</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>19.539596765799999</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>22.193349785700001</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>27.488679457300002</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>21.480578995399998</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>17.560818669900002</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>25.751900964600001</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>46.363392812299999</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>25.508622888600001</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>23.422983559999999</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>26.629823591800001</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>39.1338203647</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>29.005649130199998</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>19.871643647900001</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>22.912894933600001</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>27.125630670900001</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>26.447991701500001</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>43.527066491100001</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>38.557524532599999</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>31.176280756099999</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>29.020726031599999</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>26.9832937726</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>25.6215576048</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>25.652112457499999</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>36.81942136</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>43.155916915600002</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>29.899351611099998</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>17.535396711699999</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>48.565004997800003</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>14.750243579099999</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>24.194774993900001</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>39.433798889599998</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>22.993601761000001</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>21.720448301099999</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>30.621972703699999</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>26.020405433000001</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>24.897120942499999</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>19.9387990741</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>22.750951242700001</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>28.705123029199999</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>24.082072597700002</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>22.255735524599999</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>21.1414017773</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146">
-            <v>25.497578084800001</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147">
-            <v>36.181837277600003</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148">
-            <v>12.7023154467</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149">
-            <v>24.710510080100001</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150">
-            <v>18.058074084000001</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151">
-            <v>24.459200300999999</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152">
-            <v>25.370477944800001</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153">
-            <v>25.804602228299999</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154">
-            <v>19.313728102199999</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155">
-            <v>22.355905120500001</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156">
-            <v>18.6942799079</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157">
-            <v>18.547841330699999</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158">
-            <v>36.570730149399999</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159">
-            <v>21.463044019200002</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160">
-            <v>27.492180254200001</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161">
-            <v>29.304495796800001</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162">
-            <v>27.632441096299999</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163">
-            <v>23.0716577663</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164">
-            <v>22.455026749799998</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165">
-            <v>28.3978738142</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166">
-            <v>25.549578503700001</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167">
-            <v>33.263678439499998</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168">
-            <v>23.580648174699999</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169">
-            <v>17.3355585527</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170">
-            <v>25.768708933999999</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171">
-            <v>35.910411680999999</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172">
-            <v>26.062543661599999</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173">
-            <v>21.644448853099998</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174">
-            <v>20.1363235291</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175">
-            <v>21.977262987500001</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176">
-            <v>26.582115676600001</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177">
-            <v>28.786477320500001</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178">
-            <v>25.607420881700001</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179">
-            <v>25.545150597100001</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180">
-            <v>39.887878236699997</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="A181">
-            <v>20.0361762603</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="A182">
-            <v>22.052322699200001</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="A183">
-            <v>26.7726586185</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="A184">
-            <v>21.146267833900001</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="A185">
-            <v>24.678784704600002</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="A186">
-            <v>25.847912886700001</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="A187">
-            <v>20.424158724800002</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="A188">
-            <v>19.235151600599998</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="A189">
-            <v>21.776541103100001</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="A190">
-            <v>22.132186352000002</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="A191">
-            <v>23.5653260297</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="A192">
-            <v>26.561618312499998</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="A193">
-            <v>25.9326382641</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="A194">
-            <v>21.547211562299999</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="A195">
-            <v>31.735495865400001</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="A196">
-            <v>21.008147525999998</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Foglio1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>k_gbr</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>89.876943320199999</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>90.180303896500007</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>50.301073918999997</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>65.150594224700001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>52.712136811400001</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>40.459137078200001</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>64.382994031500004</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>43.116382610000002</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>57.591677826000002</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>50.772488070599998</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>50.128959962099998</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>51.912482103499997</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>51.0729877972</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>50.840550516900002</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>39.065368167899997</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>63.909687681400001</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>58.913017676700001</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>63.216154948499998</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>81.485572730499996</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>83.361308653999998</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>42.348048890800001</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>67.600836875499994</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>71.066647952300002</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>57.749073413600001</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>61.2983540687</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>103.30695300799999</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>43.449712488000003</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>50.442434408499999</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>49.825063523399997</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>107.574425471</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>55.7205746534</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>105.81973315400001</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>46.507138133799998</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>50.387886860000002</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>26.7894475073</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>50.790154924699998</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>45.123883632499997</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>31.564606439799999</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>72.730116941600002</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>98.048566651499996</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>83.242312626</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>76.136463770099994</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>34.203058474300001</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>42.118897079600004</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>44.304277471600003</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>49.0167871588</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>31.969220770900002</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>73.107068860799998</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>49.3475466115</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>45.625255390299998</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>65.077171300200007</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>86.375220795800004</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>47.530271342900001</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>54.974436839299997</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>62.421382138299997</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>76.499787584900005</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>40.112010414799997</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>58.486457944199998</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>67.584950307200003</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>55.602993866699997</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>45.757150113000002</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>47.6546429956</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>77.894749926599999</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>42.502800061599999</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>63.792461652</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>78.024500632499993</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>88.957376161699997</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>57.479003644899997</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>60.547413661</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>53.680150465399997</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>44.807664070100003</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>40.271023471299998</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>43.260040495200002</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>46.529444585500002</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>47.755270688899998</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>67.982256336199995</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>39.2645149393</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>55.462754279199999</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>50.974017530799998</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>49.296209552900002</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>57.949253125299997</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>61.2092370688</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>51.698475850599998</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>54.165024092700001</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>53.542414628000003</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>64.702606884299996</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>50.794361954599999</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>88.229245924200001</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>46.223774705099999</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>61.869767147200001</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>43.545669925399999</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>28.850317955400001</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>37.300893717299999</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>56.749469411</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>41.650617260899999</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>52.036915900499999</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>43.289396915499999</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>65.670629000000005</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>48.8238344974</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>55.660050475399999</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>47.167477045699997</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>52.620803639199998</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>47.604970665800003</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>39.543868490800001</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>41.548179297099999</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>50.466314373499998</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>38.793769401399999</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>61.4179799152</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>93.2119407104</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>52.3070203706</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>41.780176687000001</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>65.794788726899995</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>87.949429167399998</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>74.399128724700006</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>46.4002593823</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>52.168816290199999</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>44.682732551100003</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>53.419686028599997</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>103.42469597100001</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>87.428858832800003</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>54.664148154999999</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>48.354758860099999</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>63.608431166199999</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>46.4570842197</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>59.806074349900001</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>76.566462847500006</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>84.3436089092</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>42.649827977599998</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>30.603980003299998</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>101.671891414</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>25.192128618200002</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>48.1539545973</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>73.1901787778</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>52.242283071000003</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>60.313949758500002</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>66.547213903599996</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>54.246074030300001</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>47.646061848199999</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>39.094328227200002</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>52.2812397601</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>50.612331466900002</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>45.159346540599998</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>45.074703624400001</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>42.136418155999998</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146">
-            <v>38.941699429099998</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147">
-            <v>70.639962383899999</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148">
-            <v>27.272511271500001</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149">
-            <v>48.8219592823</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150">
-            <v>45.392973820900004</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151">
-            <v>61.479195397600002</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152">
-            <v>59.154084070099998</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153">
-            <v>58.585495819599998</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154">
-            <v>47.823235328199999</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155">
-            <v>50.746165068700002</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156">
-            <v>49.068212796300003</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157">
-            <v>48.9796611732</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158">
-            <v>69.472479078500001</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159">
-            <v>36.691476410100002</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160">
-            <v>63.825101864399997</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161">
-            <v>65.6049227659</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162">
-            <v>62.037821097399998</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163">
-            <v>48.457913331699999</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164">
-            <v>48.970670759400001</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165">
-            <v>53.227553970199999</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166">
-            <v>53.4794202458</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167">
-            <v>76.927939492799993</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168">
-            <v>53.0987980011</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169">
-            <v>28.581650815300002</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170">
-            <v>69.863688366999995</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171">
-            <v>69.504626548199994</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172">
-            <v>58.529867270899999</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173">
-            <v>50.552284264500003</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174">
-            <v>37.348094343100001</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175">
-            <v>44.101622818000003</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176">
-            <v>76.3738462978</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177">
-            <v>72.817601085899994</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178">
-            <v>65.045474923399993</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179">
-            <v>39.912155165900003</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180">
-            <v>92.869290741100002</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="A181">
-            <v>45.218503169999998</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="A182">
-            <v>41.999056996100002</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="A183">
-            <v>53.208831715000002</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="A184">
-            <v>50.184551970199998</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="A185">
-            <v>55.808812343</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="A186">
-            <v>36.652898023600002</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="A187">
-            <v>40.197954020600001</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="A188">
-            <v>41.415123731199998</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="A189">
-            <v>51.717245850700003</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="A190">
-            <v>39.785796175800002</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="A191">
-            <v>54.777780673599999</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="A192">
-            <v>45.322416974699998</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="A193">
-            <v>48.015129488699998</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="A194">
-            <v>36.409839870900001</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="A195">
-            <v>69.649703447899995</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="A196">
-            <v>37.391931194599998</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="iza" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="iza" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3693,40 +1691,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3827,12 +1825,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>427</v>
+      <c r="B2" s="2">
+        <v>1.7545319638500001</v>
       </c>
       <c r="C2">
         <v>74</v>
@@ -3928,12 +1926,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
-        <v>428</v>
+      <c r="B3">
+        <v>1.6427317058999999</v>
       </c>
       <c r="C3">
         <v>229</v>
@@ -4029,12 +2027,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
-        <v>429</v>
+      <c r="B4">
+        <v>1.5015764121199999</v>
       </c>
       <c r="C4">
         <v>63</v>
@@ -4130,12 +2128,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
-        <v>430</v>
+      <c r="B5">
+        <v>1.9142758607200001</v>
       </c>
       <c r="C5">
         <v>74</v>
@@ -4231,12 +2229,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
-        <v>431</v>
+      <c r="B6">
+        <v>2.0082223402100001</v>
       </c>
       <c r="C6">
         <v>64</v>
@@ -4332,12 +2330,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
-        <v>432</v>
+      <c r="B7">
+        <v>1.81715969822</v>
       </c>
       <c r="C7">
         <v>63</v>
@@ -4433,12 +2431,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
-        <v>433</v>
+      <c r="B8">
+        <v>1.68942175654</v>
       </c>
       <c r="C8">
         <v>176</v>
@@ -4534,12 +2532,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="s">
-        <v>434</v>
+      <c r="B9">
+        <v>1.73560067112</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -4635,12 +2633,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
-        <v>435</v>
+      <c r="B10">
+        <v>1.91635668981</v>
       </c>
       <c r="C10">
         <v>63</v>
@@ -4736,7 +2734,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -4837,7 +2835,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -4938,7 +2936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -5039,7 +3037,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -5140,7 +3138,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -5241,7 +3239,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -5342,7 +3340,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -5443,7 +3441,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -5544,7 +3542,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -5645,7 +3643,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -5746,7 +3744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -5847,7 +3845,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -5948,7 +3946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -6049,7 +4047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -6150,7 +4148,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -6251,7 +4249,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -6352,7 +4350,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -6453,7 +4451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -6554,7 +4552,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -6655,7 +4653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -6756,7 +4754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -6857,7 +4855,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -6958,7 +4956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -7059,7 +5057,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -7160,7 +5158,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -7261,7 +5259,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -7362,7 +5360,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -7463,7 +5461,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -7564,7 +5562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -7665,7 +5663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -7766,7 +5764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -7867,7 +5865,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -7968,7 +5966,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -8069,7 +6067,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -8170,7 +6168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -8271,7 +6269,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -8372,7 +6370,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -8473,7 +6471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -8574,7 +6572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -8675,7 +6673,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -8776,7 +6774,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -8877,7 +6875,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -8978,7 +6976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -9079,7 +7077,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>89</v>
       </c>
@@ -9180,7 +7178,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -9281,7 +7279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -9382,7 +7380,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -9483,7 +7481,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -9584,7 +7582,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -9685,7 +7683,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -9786,7 +7784,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -9887,7 +7885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -9988,7 +7986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -10089,7 +8087,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>99</v>
       </c>
@@ -10190,7 +8188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>100</v>
       </c>
@@ -10291,7 +8289,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -10392,7 +8390,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>102</v>
       </c>
@@ -10493,7 +8491,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -10594,7 +8592,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>104</v>
       </c>
@@ -10695,7 +8693,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>105</v>
       </c>
@@ -10796,7 +8794,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -10897,7 +8895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>107</v>
       </c>
@@ -10998,7 +8996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>108</v>
       </c>
@@ -11099,7 +9097,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>109</v>
       </c>
@@ -11200,7 +9198,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>110</v>
       </c>
@@ -11301,7 +9299,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>111</v>
       </c>
@@ -11402,7 +9400,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>112</v>
       </c>
@@ -11503,7 +9501,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>113</v>
       </c>
@@ -11604,7 +9602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>114</v>
       </c>
@@ -11705,7 +9703,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>115</v>
       </c>
@@ -11806,7 +9804,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>116</v>
       </c>
@@ -11907,7 +9905,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>117</v>
       </c>
@@ -12008,7 +10006,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>118</v>
       </c>
@@ -12109,7 +10107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>119</v>
       </c>
@@ -12210,7 +10208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>120</v>
       </c>
@@ -12311,7 +10309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>121</v>
       </c>
@@ -12412,7 +10410,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>122</v>
       </c>
@@ -12513,7 +10511,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>123</v>
       </c>
@@ -12614,7 +10612,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>124</v>
       </c>
@@ -12715,7 +10713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>125</v>
       </c>
@@ -12816,7 +10814,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>126</v>
       </c>
@@ -12917,7 +10915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>127</v>
       </c>
@@ -13018,7 +11016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>128</v>
       </c>
@@ -13119,7 +11117,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>129</v>
       </c>
@@ -13220,7 +11218,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>130</v>
       </c>
@@ -13321,7 +11319,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>131</v>
       </c>
@@ -13422,7 +11420,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>132</v>
       </c>
@@ -13523,7 +11521,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>133</v>
       </c>
@@ -13624,7 +11622,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>134</v>
       </c>
@@ -13725,7 +11723,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>135</v>
       </c>
@@ -13826,7 +11824,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>136</v>
       </c>
@@ -13927,7 +11925,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>137</v>
       </c>
@@ -14028,7 +12026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>138</v>
       </c>
@@ -14129,7 +12127,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>139</v>
       </c>
@@ -14230,7 +12228,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>140</v>
       </c>
@@ -14331,7 +12329,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>141</v>
       </c>
@@ -14432,7 +12430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>142</v>
       </c>
@@ -14533,7 +12531,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>143</v>
       </c>
@@ -14634,7 +12632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>144</v>
       </c>
@@ -14735,7 +12733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>145</v>
       </c>
@@ -14836,7 +12834,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>146</v>
       </c>
@@ -14937,7 +12935,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>147</v>
       </c>
@@ -15038,7 +13036,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>148</v>
       </c>
@@ -15139,7 +13137,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>149</v>
       </c>
@@ -15240,7 +13238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>150</v>
       </c>
@@ -15341,7 +13339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>151</v>
       </c>
@@ -15442,7 +13440,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>152</v>
       </c>
@@ -15543,7 +13541,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>153</v>
       </c>
@@ -15644,7 +13642,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>154</v>
       </c>
@@ -15745,7 +13743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>155</v>
       </c>
@@ -15846,7 +13844,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>156</v>
       </c>
@@ -15947,7 +13945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>157</v>
       </c>
@@ -16048,7 +14046,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>158</v>
       </c>
@@ -16149,7 +14147,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>159</v>
       </c>
@@ -16250,7 +14248,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>160</v>
       </c>
@@ -16351,7 +14349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>161</v>
       </c>
@@ -16452,7 +14450,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>162</v>
       </c>
@@ -16553,7 +14551,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>163</v>
       </c>
@@ -16654,7 +14652,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>164</v>
       </c>
@@ -16755,7 +14753,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>165</v>
       </c>
@@ -16856,7 +14854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>166</v>
       </c>
@@ -16957,7 +14955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>167</v>
       </c>
@@ -17058,7 +15056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>168</v>
       </c>
@@ -17159,7 +15157,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>169</v>
       </c>
@@ -17260,7 +15258,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>170</v>
       </c>
@@ -17361,7 +15359,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>171</v>
       </c>
@@ -17462,7 +15460,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>172</v>
       </c>
@@ -17563,7 +15561,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>173</v>
       </c>
@@ -17664,7 +15662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>174</v>
       </c>
@@ -17765,7 +15763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>175</v>
       </c>
@@ -17866,7 +15864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>176</v>
       </c>
@@ -17967,7 +15965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>177</v>
       </c>
@@ -18068,7 +16066,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>178</v>
       </c>
@@ -18169,7 +16167,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>179</v>
       </c>
@@ -18270,7 +16268,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>180</v>
       </c>
@@ -18371,7 +16369,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>181</v>
       </c>
@@ -18472,7 +16470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>182</v>
       </c>
@@ -18573,7 +16571,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>183</v>
       </c>
@@ -18674,7 +16672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>184</v>
       </c>
@@ -18775,7 +16773,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>185</v>
       </c>
@@ -18876,7 +16874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>186</v>
       </c>
@@ -18977,7 +16975,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>187</v>
       </c>
@@ -19078,7 +17076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>188</v>
       </c>
@@ -19179,7 +17177,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>189</v>
       </c>
@@ -19280,7 +17278,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>190</v>
       </c>
@@ -19381,7 +17379,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>191</v>
       </c>
@@ -19482,7 +17480,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>192</v>
       </c>
@@ -19583,7 +17581,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>193</v>
       </c>
@@ -19684,7 +17682,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>194</v>
       </c>
@@ -19785,7 +17783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>195</v>
       </c>
@@ -19886,7 +17884,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>196</v>
       </c>
@@ -19987,7 +17985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>197</v>
       </c>
@@ -20088,7 +18086,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>198</v>
       </c>
@@ -20189,7 +18187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>199</v>
       </c>
@@ -20290,7 +18288,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>200</v>
       </c>
@@ -20391,7 +18389,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>201</v>
       </c>
@@ -20492,7 +18490,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>202</v>
       </c>
@@ -20593,7 +18591,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>203</v>
       </c>
@@ -20694,7 +18692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>204</v>
       </c>
@@ -20795,7 +18793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>205</v>
       </c>
@@ -20896,7 +18894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>206</v>
       </c>
@@ -20997,7 +18995,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>207</v>
       </c>
@@ -21098,7 +19096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>208</v>
       </c>
@@ -21199,7 +19197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>209</v>
       </c>
@@ -21300,7 +19298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>210</v>
       </c>
@@ -21401,7 +19399,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>211</v>
       </c>
@@ -21502,7 +19500,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>212</v>
       </c>
@@ -21603,7 +19601,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>213</v>
       </c>
@@ -21704,7 +19702,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>214</v>
       </c>
@@ -21805,7 +19803,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>215</v>
       </c>
@@ -21906,7 +19904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>216</v>
       </c>
@@ -22007,7 +20005,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>217</v>
       </c>
@@ -22108,7 +20106,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>218</v>
       </c>
@@ -22209,7 +20207,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>219</v>
       </c>
@@ -22310,7 +20308,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>220</v>
       </c>
@@ -22411,7 +20409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>221</v>
       </c>
@@ -22512,7 +20510,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>222</v>
       </c>
@@ -22613,7 +20611,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>223</v>
       </c>
@@ -22714,7 +20712,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>224</v>
       </c>
@@ -22815,7 +20813,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>225</v>
       </c>
@@ -22916,7 +20914,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>226</v>
       </c>
@@ -23017,7 +21015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>227</v>
       </c>
@@ -23118,7 +21116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>228</v>
       </c>
@@ -23219,7 +21217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>229</v>
       </c>
@@ -23320,7 +21318,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>230</v>
       </c>
@@ -23421,7 +21419,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>231</v>
       </c>
